--- a/Michael Pajewski Data vis tests.xlsx
+++ b/Michael Pajewski Data vis tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\CS 5010\project\UC_Irvine_Dataset_MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ED3DD551-9716-4000-9911-EE99C6A73D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5666D12-EE08-463D-A6E6-E5E96CAD7EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId3"/>
-    <pivotCache cacheId="33" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="566">
   <si>
     <t>header</t>
   </si>
@@ -1689,20 +1689,47 @@
     <t>2020</t>
   </si>
   <si>
-    <t>Average of NumberofAttributes</t>
-  </si>
-  <si>
     <t>Sum of NumberofWebHits</t>
   </si>
   <si>
     <t>Average of NumberofInstances</t>
   </si>
+  <si>
+    <t xml:space="preserve">Part 1 </t>
+  </si>
+  <si>
+    <t> what is the dataset, what does it consist of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change this to instance and into number of atributes to show size of data set </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show the break down of how each data set makes up each the colum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show the break down of how each data column is multiple data sets </t>
+  </si>
+  <si>
+    <t>iris is a popular data set for leaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time line what happened in 2015 that we got into big data  </t>
+  </si>
+  <si>
+    <t>count of data set by year</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add in area of interest by year like the graph to the right </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1836,6 +1863,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2179,7 +2212,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2187,6 +2220,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2259,7 +2293,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[cleanest_data_test.xlsx]Sheet2!PivotTable11</c:name>
+    <c:name>[Michael Pajewski Data vis tests.xlsx]Sheet2!PivotTable11</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2720,7 +2754,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[cleanest_data_test.xlsx]Sheet2!PivotTable12</c:name>
+    <c:name>[Michael Pajewski Data vis tests.xlsx]Sheet2!PivotTable12</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3372,7 +3406,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[cleanest_data_test.xlsx]Sheet2!PivotTable13</c:name>
+    <c:name>[Michael Pajewski Data vis tests.xlsx]Sheet2!PivotTable13</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3838,470 +3872,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[cleanest_data_test.xlsx]Sheet2!PivotTable14</c:name>
-    <c:fmtId val="1"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Web hits</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> by area</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$69:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Business</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Computer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Computer Security</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Financial</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Game</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Life</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Physical</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Social</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$69:$B$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6302950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15417400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>145660</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>733223</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1521175</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19495730</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8878076</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7022173</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5910069</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E8E-4C9C-92AA-FC29E3BA594E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1505954432"/>
-        <c:axId val="1447906960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1505954432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1447906960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1447906960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1505954432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[cleanest_data_test.xlsx]Sheet2!PivotTable15</c:name>
+    <c:name>[Michael Pajewski Data vis tests.xlsx]Sheet2!PivotTable15</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -4745,7 +4316,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4759,7 +4330,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[cleanest_data_test.xlsx]Sheet2!PivotTable16</c:name>
+    <c:name>[Michael Pajewski Data vis tests.xlsx]Sheet2!PivotTable16</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -4797,6 +4368,62 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -4993,100 +4620,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>17.375</c:v>
+                  <c:v>2082.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.2</c:v>
+                  <c:v>838.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.142857142857142</c:v>
+                  <c:v>945.71428571428567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>560.27272727272725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5</c:v>
+                  <c:v>5284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.333333333333332</c:v>
+                  <c:v>1189.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>1234.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101.6</c:v>
+                  <c:v>4505.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.571428571428573</c:v>
+                  <c:v>11212.285714285714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.2</c:v>
+                  <c:v>20006.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6</c:v>
+                  <c:v>7578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>309.33333333333331</c:v>
+                  <c:v>92393.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.176470588235293</c:v>
+                  <c:v>273934</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>119652.33333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.5</c:v>
+                  <c:v>133.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22</c:v>
+                  <c:v>2565</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>129000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5</c:v>
+                  <c:v>30240</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4</c:v>
+                  <c:v>209477</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13922.235294117647</c:v>
+                  <c:v>473947.29411764705</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>404029.25</c:v>
+                  <c:v>302640</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>505.81818181818181</c:v>
+                  <c:v>30061.81818181818</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13276.666666666666</c:v>
+                  <c:v>361075.11111111112</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>117.3</c:v>
+                  <c:v>569326.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>89625.787878787873</c:v>
+                  <c:v>36796.818181818184</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6706</c:v>
+                  <c:v>396864.12195121951</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5435.4444444444443</c:v>
+                  <c:v>1911712.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13812.868421052632</c:v>
+                  <c:v>897779</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>60166.888888888891</c:v>
+                  <c:v>514687.80555555556</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1784.6730769230769</c:v>
+                  <c:v>1482036.9423076923</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>516.73333333333335</c:v>
+                  <c:v>2383365.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18422.636363636364</c:v>
+                  <c:v>1579965.9090909092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5214,6 +4841,2472 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1506001632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Michael Pajewski Data vis tests.xlsx]Sheet2!PivotTable2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$131:$B$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$133:$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$133:$B$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BBA-40FC-9CB5-1547413F970D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$131:$C$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Computer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$133:$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$133:$C$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BBA-40FC-9CB5-1547413F970D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$131:$D$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Computer Security</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$133:$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$133:$D$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3BBA-40FC-9CB5-1547413F970D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$131:$E$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Financial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$133:$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$133:$E$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3BBA-40FC-9CB5-1547413F970D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$131:$F$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$133:$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$133:$F$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3BBA-40FC-9CB5-1547413F970D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$131:$G$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$133:$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$133:$G$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3BBA-40FC-9CB5-1547413F970D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$131:$H$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$133:$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$133:$H$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3BBA-40FC-9CB5-1547413F970D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$131:$I$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Physical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$133:$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$133:$I$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3BBA-40FC-9CB5-1547413F970D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$131:$J$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Social</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$133:$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$133:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3BBA-40FC-9CB5-1547413F970D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="832294656"/>
+        <c:axId val="316753248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="832294656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316753248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316753248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832294656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8579,15 +10672,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>155257</xdr:rowOff>
+      <xdr:rowOff>48577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>8572</xdr:rowOff>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8615,15 +10708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>170497</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>174307</xdr:rowOff>
+      <xdr:colOff>8115</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>342443</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115829</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8651,13 +10744,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>606742</xdr:colOff>
+      <xdr:colOff>553080</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>132397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>301942</xdr:colOff>
+      <xdr:colOff>248280</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>153352</xdr:rowOff>
     </xdr:to>
@@ -8686,23 +10779,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>18097</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>164782</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>565289</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>322897</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>16192</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>260489</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99127</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F762BB8-D413-4C40-A997-874822E99F66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B64B1A-5278-4E05-BD2A-7AF7D0B67B1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8723,22 +10816,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>21907</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88582</xdr:rowOff>
+      <xdr:colOff>36183</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>326707</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>94297</xdr:rowOff>
+      <xdr:colOff>340984</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B64B1A-5278-4E05-BD2A-7AF7D0B67B1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3DD087-7861-41A4-B906-EA3EB87AB659}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8758,23 +10851,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>197167</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>18097</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>137171</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>501967</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>39052</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>84045</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>54908</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3DD087-7861-41A4-B906-EA3EB87AB659}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8982B3-6C4F-494B-9773-29F7A8D2FF5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8796,7 +10889,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Michael Pajewski" refreshedDate="44038.514116782404" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="473">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michael Pajewski" refreshedDate="44038.514116782404" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="473" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AJ1048576" sheet="cleanest_data_test"/>
   </cacheSource>
@@ -8930,7 +11023,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Michael Pajewski" refreshedDate="44038.514915740743" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="472">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michael Pajewski" refreshedDate="44038.514915740743" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="472" xr:uid="{00000000-000A-0000-FFFF-FFFF21000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AJ473" sheet="cleanest_data_test"/>
   </cacheSource>
@@ -27519,7 +29612,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="472">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="472">
   <r>
     <n v="0"/>
     <s v="Smartphone-Based Recognition of Human Activities and Postural Transitions Data Set"/>
@@ -45460,14 +47553,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A94:B127" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA0E1563-B870-4C5B-83EF-0E9AEB9976AB}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A131:K165" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="38">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -45674,95 +47780,10 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of NumberofAttributes" fld="4" subtotal="average" baseField="37" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A81:B91" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="38">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
+  <colFields count="1">
     <field x="3"/>
-  </rowFields>
-  <rowItems count="10">
+  </colFields>
+  <colItems count="10">
     <i>
       <x/>
     </i>
@@ -45793,19 +47814,115 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of NumberofInstances" fld="2" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="Count of Area" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="9">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -45823,128 +47940,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A68:B78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="38">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of NumberofWebHits" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000002000000}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A54:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
@@ -46065,8 +48062,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A18:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="38">
     <pivotField showAll="0"/>
@@ -46311,8 +48308,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
@@ -46409,6 +48406,490 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Area" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000005000000}" name="PivotTable16" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A94:B127" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="38">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="36">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="37"/>
+    <field x="36"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="33">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of NumberofInstances" fld="2" subtotal="average" baseField="37" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000004000000}" name="PivotTable15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A81:B91" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="38">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of NumberofInstances" fld="2" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000003000000}" name="PivotTable14" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A68:B78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="38">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NumberofWebHits" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="1" format="0" series="1">
@@ -46729,17 +49210,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -46836,23 +49326,37 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>556</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>555</v>
+        <v>554</v>
+      </c>
+      <c r="V18" t="s">
+        <v>558</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>522</v>
       </c>
       <c r="B19" s="4">
         <v>2399935</v>
       </c>
+      <c r="V19" t="s">
+        <v>559</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>523</v>
       </c>
@@ -46860,7 +49364,7 @@
         <v>6531406</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>524</v>
       </c>
@@ -46868,7 +49372,7 @@
         <v>1062937</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>525</v>
       </c>
@@ -46876,7 +49380,7 @@
         <v>1645152</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>526</v>
       </c>
@@ -46884,7 +49388,7 @@
         <v>2114326</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>527</v>
       </c>
@@ -46892,7 +49396,7 @@
         <v>1798578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>528</v>
       </c>
@@ -46900,7 +49404,7 @@
         <v>1262093</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>529</v>
       </c>
@@ -46908,7 +49412,7 @@
         <v>1625661</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>530</v>
       </c>
@@ -46916,7 +49420,7 @@
         <v>2875961</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>531</v>
       </c>
@@ -46924,7 +49428,7 @@
         <v>2946805</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>532</v>
       </c>
@@ -46932,7 +49436,7 @@
         <v>1957978</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>533</v>
       </c>
@@ -46940,7 +49444,7 @@
         <v>2007704</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>534</v>
       </c>
@@ -46948,7 +49452,7 @@
         <v>2326535</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>535</v>
       </c>
@@ -46956,7 +49460,7 @@
         <v>422506</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>536</v>
       </c>
@@ -46964,7 +49468,7 @@
         <v>384477</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>537</v>
       </c>
@@ -46972,7 +49476,7 @@
         <v>112305</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>538</v>
       </c>
@@ -46980,7 +49484,7 @@
         <v>47750</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>539</v>
       </c>
@@ -46988,7 +49492,7 @@
         <v>128238</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>540</v>
       </c>
@@ -46996,7 +49500,7 @@
         <v>1200930</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>541</v>
       </c>
@@ -47004,7 +49508,7 @@
         <v>3318002</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>542</v>
       </c>
@@ -47012,23 +49516,38 @@
         <v>2266777</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>543</v>
       </c>
       <c r="B40" s="4">
         <v>916877</v>
       </c>
+      <c r="E40" t="s">
+        <v>560</v>
+      </c>
+      <c r="N40" t="s">
+        <v>562</v>
+      </c>
+      <c r="V40" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B41" s="4">
         <v>1688868</v>
       </c>
+      <c r="E41" t="s">
+        <v>561</v>
+      </c>
+      <c r="N41" t="s">
+        <v>565</v>
+      </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>545</v>
       </c>
@@ -47036,7 +49555,7 @@
         <v>4863034</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>546</v>
       </c>
@@ -47044,7 +49563,7 @@
         <v>3459019</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>547</v>
       </c>
@@ -47052,7 +49571,7 @@
         <v>4636904</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>548</v>
       </c>
@@ -47060,7 +49579,7 @@
         <v>2822297</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>549</v>
       </c>
@@ -47068,7 +49587,7 @@
         <v>3550709</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>550</v>
       </c>
@@ -47076,7 +49595,7 @@
         <v>1905997</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>551</v>
       </c>
@@ -47113,7 +49632,7 @@
         <v>518</v>
       </c>
       <c r="B54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -47207,7 +49726,7 @@
         <v>518</v>
       </c>
       <c r="B68" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -47295,7 +49814,7 @@
         <v>518</v>
       </c>
       <c r="B81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -47383,7 +49902,7 @@
         <v>518</v>
       </c>
       <c r="B94" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -47391,7 +49910,7 @@
         <v>522</v>
       </c>
       <c r="B95" s="4">
-        <v>17.375</v>
+        <v>2082.5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -47399,7 +49918,7 @@
         <v>523</v>
       </c>
       <c r="B96" s="4">
-        <v>27.2</v>
+        <v>838.4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -47407,7 +49926,7 @@
         <v>524</v>
       </c>
       <c r="B97" s="4">
-        <v>19.142857142857142</v>
+        <v>945.71428571428567</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -47415,7 +49934,7 @@
         <v>525</v>
       </c>
       <c r="B98" s="4">
-        <v>17</v>
+        <v>560.27272727272725</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -47423,7 +49942,7 @@
         <v>526</v>
       </c>
       <c r="B99" s="4">
-        <v>9.5</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -47431,7 +49950,7 @@
         <v>527</v>
       </c>
       <c r="B100" s="4">
-        <v>31.333333333333332</v>
+        <v>1189.3333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -47439,7 +49958,7 @@
         <v>528</v>
       </c>
       <c r="B101" s="4">
-        <v>14</v>
+        <v>1234.2857142857142</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -47447,7 +49966,7 @@
         <v>529</v>
       </c>
       <c r="B102" s="4">
-        <v>101.6</v>
+        <v>4505.8</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -47455,7 +49974,7 @@
         <v>530</v>
       </c>
       <c r="B103" s="4">
-        <v>23.571428571428573</v>
+        <v>11212.285714285714</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -47463,7 +49982,7 @@
         <v>531</v>
       </c>
       <c r="B104" s="4">
-        <v>13.2</v>
+        <v>20006.400000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -47471,7 +49990,7 @@
         <v>532</v>
       </c>
       <c r="B105" s="4">
-        <v>6.6</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -47479,7 +49998,7 @@
         <v>533</v>
       </c>
       <c r="B106" s="4">
-        <v>309.33333333333331</v>
+        <v>92393.666666666672</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -47487,7 +50006,7 @@
         <v>534</v>
       </c>
       <c r="B107" s="4">
-        <v>27.176470588235293</v>
+        <v>273934</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -47495,7 +50014,7 @@
         <v>535</v>
       </c>
       <c r="B108" s="4">
-        <v>42</v>
+        <v>119652.33333333333</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -47503,7 +50022,7 @@
         <v>536</v>
       </c>
       <c r="B109" s="4">
-        <v>16.5</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -47511,7 +50030,7 @@
         <v>537</v>
       </c>
       <c r="B110" s="4">
-        <v>22</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -47519,7 +50038,7 @@
         <v>538</v>
       </c>
       <c r="B111" s="4">
-        <v>0</v>
+        <v>129000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -47527,7 +50046,7 @@
         <v>539</v>
       </c>
       <c r="B112" s="4">
-        <v>3.5</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -47535,7 +50054,7 @@
         <v>540</v>
       </c>
       <c r="B113" s="4">
-        <v>7.4</v>
+        <v>209477</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -47543,7 +50062,7 @@
         <v>541</v>
       </c>
       <c r="B114" s="4">
-        <v>13922.235294117647</v>
+        <v>473947.29411764705</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -47551,7 +50070,7 @@
         <v>542</v>
       </c>
       <c r="B115" s="4">
-        <v>404029.25</v>
+        <v>302640</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -47559,7 +50078,7 @@
         <v>543</v>
       </c>
       <c r="B116" s="4">
-        <v>505.81818181818181</v>
+        <v>30061.81818181818</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -47567,7 +50086,7 @@
         <v>544</v>
       </c>
       <c r="B117" s="4">
-        <v>13276.666666666666</v>
+        <v>361075.11111111112</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -47575,7 +50094,7 @@
         <v>545</v>
       </c>
       <c r="B118" s="4">
-        <v>117.3</v>
+        <v>569326.25</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -47583,7 +50102,7 @@
         <v>546</v>
       </c>
       <c r="B119" s="4">
-        <v>89625.787878787873</v>
+        <v>36796.818181818184</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -47591,7 +50110,7 @@
         <v>547</v>
       </c>
       <c r="B120" s="4">
-        <v>6706</v>
+        <v>396864.12195121951</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -47599,7 +50118,7 @@
         <v>548</v>
       </c>
       <c r="B121" s="4">
-        <v>5435.4444444444443</v>
+        <v>1911712.3333333333</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -47607,7 +50126,7 @@
         <v>549</v>
       </c>
       <c r="B122" s="4">
-        <v>13812.868421052632</v>
+        <v>897779</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -47615,7 +50134,7 @@
         <v>550</v>
       </c>
       <c r="B123" s="4">
-        <v>60166.888888888891</v>
+        <v>514687.80555555556</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -47623,7 +50142,7 @@
         <v>551</v>
       </c>
       <c r="B124" s="4">
-        <v>1784.6730769230769</v>
+        <v>1482036.9423076923</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -47631,7 +50150,7 @@
         <v>552</v>
       </c>
       <c r="B125" s="4">
-        <v>516.73333333333335</v>
+        <v>2383365.2000000002</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -47639,7 +50158,7 @@
         <v>553</v>
       </c>
       <c r="B126" s="4">
-        <v>18422.636363636364</v>
+        <v>1579965.9090909092</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -47647,26 +50166,931 @@
         <v>520</v>
       </c>
       <c r="B127" s="4">
-        <v>21404.824152542373</v>
+        <v>686057.01271186443</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B132" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" t="s">
+        <v>409</v>
+      </c>
+      <c r="E132" t="s">
+        <v>322</v>
+      </c>
+      <c r="F132" t="s">
+        <v>55</v>
+      </c>
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" t="s">
+        <v>42</v>
+      </c>
+      <c r="I132" t="s">
+        <v>57</v>
+      </c>
+      <c r="J132" t="s">
+        <v>50</v>
+      </c>
+      <c r="K132" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4">
+        <v>1</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4">
+        <v>4</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1</v>
+      </c>
+      <c r="I133" s="4">
+        <v>1</v>
+      </c>
+      <c r="J133" s="4">
+        <v>1</v>
+      </c>
+      <c r="K133" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4">
+        <v>1</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4">
+        <v>7</v>
+      </c>
+      <c r="H134" s="4">
+        <v>1</v>
+      </c>
+      <c r="I134" s="4">
+        <v>4</v>
+      </c>
+      <c r="J134" s="4">
+        <v>1</v>
+      </c>
+      <c r="K134" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4">
+        <v>1</v>
+      </c>
+      <c r="G135" s="4">
+        <v>2</v>
+      </c>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4">
+        <v>3</v>
+      </c>
+      <c r="J135" s="4">
+        <v>1</v>
+      </c>
+      <c r="K135" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4">
+        <v>1</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4">
+        <v>3</v>
+      </c>
+      <c r="H136" s="4">
+        <v>5</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1</v>
+      </c>
+      <c r="J136" s="4">
+        <v>1</v>
+      </c>
+      <c r="K136" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4">
+        <v>1</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4">
+        <v>2</v>
+      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4">
+        <v>1</v>
+      </c>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4">
+        <v>1</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4">
+        <v>1</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4">
+        <v>5</v>
+      </c>
+      <c r="H138" s="4">
+        <v>2</v>
+      </c>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4">
+        <v>1</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4">
+        <v>1</v>
+      </c>
+      <c r="H139" s="4">
+        <v>1</v>
+      </c>
+      <c r="I139" s="4">
+        <v>3</v>
+      </c>
+      <c r="J139" s="4">
+        <v>1</v>
+      </c>
+      <c r="K139" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4">
+        <v>2</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4">
+        <v>1</v>
+      </c>
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4">
+        <v>3</v>
+      </c>
+      <c r="I140" s="4">
+        <v>2</v>
+      </c>
+      <c r="J140" s="4">
+        <v>1</v>
+      </c>
+      <c r="K140" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4">
+        <v>2</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4">
+        <v>3</v>
+      </c>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4">
+        <v>1</v>
+      </c>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4">
+        <v>2</v>
+      </c>
+      <c r="H142" s="4">
+        <v>1</v>
+      </c>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4">
+        <v>2</v>
+      </c>
+      <c r="K142" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4">
+        <v>1</v>
+      </c>
+      <c r="H143" s="4">
+        <v>3</v>
+      </c>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4">
+        <v>1</v>
+      </c>
+      <c r="K143" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4">
+        <v>5</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4">
+        <v>3</v>
+      </c>
+      <c r="H144" s="4">
+        <v>1</v>
+      </c>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4">
+        <v>4</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4">
+        <v>2</v>
+      </c>
+      <c r="H145" s="4">
+        <v>7</v>
+      </c>
+      <c r="I145" s="4">
+        <v>3</v>
+      </c>
+      <c r="J145" s="4">
+        <v>1</v>
+      </c>
+      <c r="K145" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4">
+        <v>1</v>
+      </c>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4">
+        <v>2</v>
+      </c>
+      <c r="K146" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4">
+        <v>4</v>
+      </c>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4">
+        <v>1</v>
+      </c>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4">
+        <v>1</v>
+      </c>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4">
+        <v>2</v>
+      </c>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4">
+        <v>1</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4">
+        <v>1</v>
+      </c>
+      <c r="G151" s="4">
+        <v>1</v>
+      </c>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4">
+        <v>2</v>
+      </c>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B152" s="4">
+        <v>2</v>
+      </c>
+      <c r="C152" s="4">
+        <v>4</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4">
+        <v>5</v>
+      </c>
+      <c r="H152" s="4">
+        <v>4</v>
+      </c>
+      <c r="I152" s="4">
+        <v>2</v>
+      </c>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B153" s="4">
+        <v>1</v>
+      </c>
+      <c r="C153" s="4">
+        <v>3</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4">
+        <v>2</v>
+      </c>
+      <c r="H153" s="4">
+        <v>1</v>
+      </c>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4">
+        <v>1</v>
+      </c>
+      <c r="K153" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4">
+        <v>2</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4">
+        <v>5</v>
+      </c>
+      <c r="H154" s="4">
+        <v>2</v>
+      </c>
+      <c r="I154" s="4">
+        <v>2</v>
+      </c>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B155" s="4">
+        <v>2</v>
+      </c>
+      <c r="C155" s="4">
+        <v>6</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4">
+        <v>3</v>
+      </c>
+      <c r="H155" s="4">
+        <v>3</v>
+      </c>
+      <c r="I155" s="4">
+        <v>3</v>
+      </c>
+      <c r="J155" s="4">
+        <v>1</v>
+      </c>
+      <c r="K155" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B156" s="4">
+        <v>2</v>
+      </c>
+      <c r="C156" s="4">
+        <v>12</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4">
+        <v>3</v>
+      </c>
+      <c r="H156" s="4">
+        <v>2</v>
+      </c>
+      <c r="I156" s="4">
+        <v>1</v>
+      </c>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B157" s="4">
+        <v>1</v>
+      </c>
+      <c r="C157" s="4">
+        <v>14</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4">
+        <v>1</v>
+      </c>
+      <c r="G157" s="4">
+        <v>8</v>
+      </c>
+      <c r="H157" s="4">
+        <v>4</v>
+      </c>
+      <c r="I157" s="4">
+        <v>3</v>
+      </c>
+      <c r="J157" s="4">
+        <v>2</v>
+      </c>
+      <c r="K157" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B158" s="4">
+        <v>2</v>
+      </c>
+      <c r="C158" s="4">
+        <v>18</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4">
+        <v>6</v>
+      </c>
+      <c r="H158" s="4">
+        <v>8</v>
+      </c>
+      <c r="I158" s="4">
+        <v>4</v>
+      </c>
+      <c r="J158" s="4">
+        <v>3</v>
+      </c>
+      <c r="K158" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B159" s="4">
+        <v>3</v>
+      </c>
+      <c r="C159" s="4">
+        <v>12</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4">
+        <v>5</v>
+      </c>
+      <c r="H159" s="4">
+        <v>4</v>
+      </c>
+      <c r="I159" s="4">
+        <v>1</v>
+      </c>
+      <c r="J159" s="4">
+        <v>1</v>
+      </c>
+      <c r="K159" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B160" s="4">
+        <v>5</v>
+      </c>
+      <c r="C160" s="4">
+        <v>25</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4">
+        <v>1</v>
+      </c>
+      <c r="G160" s="4">
+        <v>2</v>
+      </c>
+      <c r="H160" s="4">
+        <v>2</v>
+      </c>
+      <c r="I160" s="4">
+        <v>2</v>
+      </c>
+      <c r="J160" s="4">
+        <v>1</v>
+      </c>
+      <c r="K160" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B161" s="4">
+        <v>3</v>
+      </c>
+      <c r="C161" s="4">
+        <v>17</v>
+      </c>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4">
+        <v>10</v>
+      </c>
+      <c r="H161" s="4">
+        <v>2</v>
+      </c>
+      <c r="I161" s="4">
+        <v>3</v>
+      </c>
+      <c r="J161" s="4">
+        <v>1</v>
+      </c>
+      <c r="K161" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B162" s="4">
+        <v>3</v>
+      </c>
+      <c r="C162" s="4">
+        <v>28</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4">
+        <v>11</v>
+      </c>
+      <c r="H162" s="4">
+        <v>6</v>
+      </c>
+      <c r="I162" s="4">
+        <v>2</v>
+      </c>
+      <c r="J162" s="4">
+        <v>2</v>
+      </c>
+      <c r="K162" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B163" s="4">
+        <v>4</v>
+      </c>
+      <c r="C163" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4">
+        <v>6</v>
+      </c>
+      <c r="H163" s="4">
+        <v>2</v>
+      </c>
+      <c r="I163" s="4">
+        <v>5</v>
+      </c>
+      <c r="J163" s="4">
+        <v>2</v>
+      </c>
+      <c r="K163" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4">
+        <v>4</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4">
+        <v>4</v>
+      </c>
+      <c r="H164" s="4">
+        <v>1</v>
+      </c>
+      <c r="I164" s="4">
+        <v>1</v>
+      </c>
+      <c r="J164" s="4">
+        <v>1</v>
+      </c>
+      <c r="K164" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B165" s="4">
+        <v>28</v>
+      </c>
+      <c r="C165" s="4">
+        <v>176</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1</v>
+      </c>
+      <c r="E165" s="4">
+        <v>2</v>
+      </c>
+      <c r="F165" s="4">
+        <v>9</v>
+      </c>
+      <c r="G165" s="4">
+        <v>108</v>
+      </c>
+      <c r="H165" s="4">
+        <v>71</v>
+      </c>
+      <c r="I165" s="4">
+        <v>50</v>
+      </c>
+      <c r="J165" s="4">
+        <v>27</v>
+      </c>
+      <c r="K165" s="4">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ473"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView topLeftCell="N445" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>

--- a/Michael Pajewski Data vis tests.xlsx
+++ b/Michael Pajewski Data vis tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\CS 5010\project\UC_Irvine_Dataset_MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5666D12-EE08-463D-A6E6-E5E96CAD7EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395FC54C-4B98-45DA-92A6-66981A01B5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -19,13 +19,13 @@
   <calcPr calcId="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="567">
   <si>
     <t>header</t>
   </si>
@@ -1723,6 +1723,9 @@
   </si>
   <si>
     <t xml:space="preserve">add in area of interest by year like the graph to the right </t>
+  </si>
+  <si>
+    <t>Sum of NumberofInstances</t>
   </si>
 </sst>
 </file>
@@ -3897,7 +3900,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Avg  instance per area</a:t>
+              <a:t>sum  instance per area</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4062,31 +4065,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>80736.96428571429</c:v>
+                  <c:v>2260635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1265119.8181818181</c:v>
+                  <c:v>222661088</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>562.5</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136790.66666666666</c:v>
+                  <c:v>1231116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>310184.68518518517</c:v>
+                  <c:v>33499946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>475529.23943661974</c:v>
+                  <c:v>33762576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>591881.88</c:v>
+                  <c:v>29594094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29847.185185185186</c:v>
+                  <c:v>805874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -47553,7 +47556,859 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA0E1563-B870-4C5B-83EF-0E9AEB9976AB}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000003000000}" name="PivotTable14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A68:B78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="38">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NumberofWebHits" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A18:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="38">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="37">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="37"/>
+    <field x="36"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="33">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NumberofWebHits" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="36">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Area" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000005000000}" name="PivotTable16" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A94:B127" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="38">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="36">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="37"/>
+    <field x="36"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="33">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of NumberofInstances" fld="2" subtotal="average" baseField="37" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000004000000}" name="PivotTable15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A81:B91" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="38">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of NumberofInstances" fld="2" baseField="3" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA0E1563-B870-4C5B-83EF-0E9AEB9976AB}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A131:K165" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="38">
     <pivotField showAll="0"/>
@@ -47940,7 +48795,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000002000000}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A54:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
@@ -48028,858 +48883,6 @@
     </i>
     <i>
       <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of NumberofWebHits" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A18:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="38">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="37">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="37"/>
-    <field x="36"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="33">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of NumberofWebHits" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="36">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Area" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000005000000}" name="PivotTable16" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A94:B127" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="38">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="36">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="37"/>
-    <field x="36"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="33">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of NumberofInstances" fld="2" subtotal="average" baseField="37" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000004000000}" name="PivotTable15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A81:B91" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="38">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of NumberofInstances" fld="2" subtotal="average" baseField="3" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000003000000}" name="PivotTable14" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A68:B78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="38">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -49213,14 +49216,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -49814,7 +49817,7 @@
         <v>518</v>
       </c>
       <c r="B81" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -49822,7 +49825,7 @@
         <v>40</v>
       </c>
       <c r="B82" s="4">
-        <v>80736.96428571429</v>
+        <v>2260635</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -49830,7 +49833,7 @@
         <v>47</v>
       </c>
       <c r="B83" s="4">
-        <v>1265119.8181818181</v>
+        <v>222661088</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -49846,7 +49849,7 @@
         <v>322</v>
       </c>
       <c r="B85" s="4">
-        <v>562.5</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -49854,7 +49857,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="4">
-        <v>136790.66666666666</v>
+        <v>1231116</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -49862,7 +49865,7 @@
         <v>36</v>
       </c>
       <c r="B87" s="4">
-        <v>310184.68518518517</v>
+        <v>33499946</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -49870,7 +49873,7 @@
         <v>42</v>
       </c>
       <c r="B88" s="4">
-        <v>475529.23943661974</v>
+        <v>33762576</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -49878,7 +49881,7 @@
         <v>57</v>
       </c>
       <c r="B89" s="4">
-        <v>591881.88</v>
+        <v>29594094</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -49886,7 +49889,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="4">
-        <v>29847.185185185186</v>
+        <v>805874</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -49894,7 +49897,7 @@
         <v>520</v>
       </c>
       <c r="B91" s="4">
-        <v>686057.01271186443</v>
+        <v>323818910</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -51084,8 +51087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ473"/>
   <sheetViews>
-    <sheetView topLeftCell="N445" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
